--- a/data/pca/factorExposure/factorExposure_2012-01-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01582744719090249</v>
+        <v>0.01569251587901845</v>
       </c>
       <c r="C2">
-        <v>0.03020476634578056</v>
+        <v>0.02530827423609512</v>
       </c>
       <c r="D2">
-        <v>0.01638096207841856</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01654172756902594</v>
+      </c>
+      <c r="E2">
+        <v>-0.01577461495663101</v>
+      </c>
+      <c r="F2">
+        <v>0.01492092381482994</v>
+      </c>
+      <c r="G2">
+        <v>0.004590804758755204</v>
+      </c>
+      <c r="H2">
+        <v>-0.0469015712685192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0735145447303578</v>
+        <v>0.08812261584773065</v>
       </c>
       <c r="C4">
-        <v>0.05302464828640603</v>
+        <v>0.0392701727203557</v>
       </c>
       <c r="D4">
-        <v>0.08458618314764098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06848704215647534</v>
+      </c>
+      <c r="E4">
+        <v>-0.007284541518693181</v>
+      </c>
+      <c r="F4">
+        <v>0.04003879137186485</v>
+      </c>
+      <c r="G4">
+        <v>0.005601159321121037</v>
+      </c>
+      <c r="H4">
+        <v>0.03540412419352328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.109900509727507</v>
+        <v>0.1224333301322836</v>
       </c>
       <c r="C6">
-        <v>0.05094956621983356</v>
+        <v>0.03632315146613217</v>
       </c>
       <c r="D6">
-        <v>0.006207067274355975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01151406936943934</v>
+      </c>
+      <c r="E6">
+        <v>0.02131684088278625</v>
+      </c>
+      <c r="F6">
+        <v>0.05469239757123563</v>
+      </c>
+      <c r="G6">
+        <v>0.03469770599879928</v>
+      </c>
+      <c r="H6">
+        <v>-0.1192095785951877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05372537521382414</v>
+        <v>0.06322666070592636</v>
       </c>
       <c r="C7">
-        <v>0.02543592315180049</v>
+        <v>0.0134881849079608</v>
       </c>
       <c r="D7">
-        <v>0.03896446936371773</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05037333732181803</v>
+      </c>
+      <c r="E7">
+        <v>-0.0344010032699919</v>
+      </c>
+      <c r="F7">
+        <v>0.03910157737293578</v>
+      </c>
+      <c r="G7">
+        <v>-0.02971632990229747</v>
+      </c>
+      <c r="H7">
+        <v>0.0154544323016261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04107472602178973</v>
+        <v>0.04275976953002474</v>
       </c>
       <c r="C8">
-        <v>0.01444449250831588</v>
+        <v>0.009705813633551691</v>
       </c>
       <c r="D8">
-        <v>0.06194639322325362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02511337706446435</v>
+      </c>
+      <c r="E8">
+        <v>-0.02024643865036966</v>
+      </c>
+      <c r="F8">
+        <v>0.06097171000179624</v>
+      </c>
+      <c r="G8">
+        <v>0.06169550744988145</v>
+      </c>
+      <c r="H8">
+        <v>-0.01624014847802653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06814319437645951</v>
+        <v>0.07928787486763363</v>
       </c>
       <c r="C9">
-        <v>0.03932598730011554</v>
+        <v>0.02597040013528314</v>
       </c>
       <c r="D9">
-        <v>0.07550297827020286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06291846281756493</v>
+      </c>
+      <c r="E9">
+        <v>-0.02806677164496154</v>
+      </c>
+      <c r="F9">
+        <v>0.03409524611198223</v>
+      </c>
+      <c r="G9">
+        <v>0.01226617825688782</v>
+      </c>
+      <c r="H9">
+        <v>0.04626855851752953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03204472214336705</v>
+        <v>0.04114124452266108</v>
       </c>
       <c r="C10">
-        <v>0.0269960258497369</v>
+        <v>0.05089341600484271</v>
       </c>
       <c r="D10">
-        <v>-0.1721669882304394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1731620024035679</v>
+      </c>
+      <c r="E10">
+        <v>-0.04219583776892881</v>
+      </c>
+      <c r="F10">
+        <v>0.04921556089095252</v>
+      </c>
+      <c r="G10">
+        <v>-0.01803053578103377</v>
+      </c>
+      <c r="H10">
+        <v>-0.03915392857162699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07212404020448476</v>
+        <v>0.07683790324303967</v>
       </c>
       <c r="C11">
-        <v>0.04204109821353345</v>
+        <v>0.022393189958025</v>
       </c>
       <c r="D11">
-        <v>0.05752974866033254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06415503004887269</v>
+      </c>
+      <c r="E11">
+        <v>0.006720377206863538</v>
+      </c>
+      <c r="F11">
+        <v>0.03254579203791057</v>
+      </c>
+      <c r="G11">
+        <v>0.02018122886773891</v>
+      </c>
+      <c r="H11">
+        <v>0.073556009677298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06074943128222415</v>
+        <v>0.06924834388907153</v>
       </c>
       <c r="C12">
-        <v>0.05080074665154467</v>
+        <v>0.03433087248386679</v>
       </c>
       <c r="D12">
-        <v>0.04414671821019158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04792992796387206</v>
+      </c>
+      <c r="E12">
+        <v>-0.01110920272584953</v>
+      </c>
+      <c r="F12">
+        <v>0.02128205435848201</v>
+      </c>
+      <c r="G12">
+        <v>0.0125600802207834</v>
+      </c>
+      <c r="H12">
+        <v>0.03151063755137969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06546844487821048</v>
+        <v>0.06720994740508249</v>
       </c>
       <c r="C13">
-        <v>0.03432883366760802</v>
+        <v>0.01938614330599676</v>
       </c>
       <c r="D13">
-        <v>0.04800862266766068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03881322824832226</v>
+      </c>
+      <c r="E13">
+        <v>-0.01255553398644293</v>
+      </c>
+      <c r="F13">
+        <v>0.01484523602392517</v>
+      </c>
+      <c r="G13">
+        <v>0.0007770780215502331</v>
+      </c>
+      <c r="H13">
+        <v>0.05512903664593947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03310033769476901</v>
+        <v>0.03938412094102076</v>
       </c>
       <c r="C14">
-        <v>0.0305293641776384</v>
+        <v>0.02646547470908859</v>
       </c>
       <c r="D14">
-        <v>0.004516823691207102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01405754479045374</v>
+      </c>
+      <c r="E14">
+        <v>-0.03285344309006674</v>
+      </c>
+      <c r="F14">
+        <v>0.01302662216398643</v>
+      </c>
+      <c r="G14">
+        <v>0.0177160667016775</v>
+      </c>
+      <c r="H14">
+        <v>0.05794110912215038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03976305716976745</v>
+        <v>0.03947955028941563</v>
       </c>
       <c r="C15">
-        <v>0.00838565887932303</v>
+        <v>0.001950773136949775</v>
       </c>
       <c r="D15">
-        <v>0.02239833166732769</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.008872021359477986</v>
+      </c>
+      <c r="E15">
+        <v>-0.03451564765971835</v>
+      </c>
+      <c r="F15">
+        <v>-0.001734422735234352</v>
+      </c>
+      <c r="G15">
+        <v>0.02834063476656471</v>
+      </c>
+      <c r="H15">
+        <v>0.03085585241215942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06096135391032319</v>
+        <v>0.07127352659786171</v>
       </c>
       <c r="C16">
-        <v>0.03947620892142719</v>
+        <v>0.02466468923877562</v>
       </c>
       <c r="D16">
-        <v>0.04934947909723014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06147582987268626</v>
+      </c>
+      <c r="E16">
+        <v>-0.002967883385321735</v>
+      </c>
+      <c r="F16">
+        <v>0.03024717786537046</v>
+      </c>
+      <c r="G16">
+        <v>0.01133145827311075</v>
+      </c>
+      <c r="H16">
+        <v>0.0488296271579159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06340252235700514</v>
+        <v>0.06306943364038907</v>
       </c>
       <c r="C20">
-        <v>0.02407950545669272</v>
+        <v>0.008135436412804811</v>
       </c>
       <c r="D20">
-        <v>0.04844613966141881</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03885956641400345</v>
+      </c>
+      <c r="E20">
+        <v>-0.01817457071085016</v>
+      </c>
+      <c r="F20">
+        <v>0.02558192984140388</v>
+      </c>
+      <c r="G20">
+        <v>0.01656410524736271</v>
+      </c>
+      <c r="H20">
+        <v>0.03824056055630907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02704845912475239</v>
+        <v>0.02714551835659072</v>
       </c>
       <c r="C21">
-        <v>-0.002007732173561791</v>
+        <v>-0.009301245239541093</v>
       </c>
       <c r="D21">
-        <v>0.02133043281615394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02299060724762221</v>
+      </c>
+      <c r="E21">
+        <v>-0.04281058653157992</v>
+      </c>
+      <c r="F21">
+        <v>-0.01489035052206963</v>
+      </c>
+      <c r="G21">
+        <v>0.005783459841208915</v>
+      </c>
+      <c r="H21">
+        <v>-0.04791160276546622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07983708424481678</v>
+        <v>0.06956412055108141</v>
       </c>
       <c r="C22">
-        <v>0.05971405355134368</v>
+        <v>0.03312995102107145</v>
       </c>
       <c r="D22">
-        <v>0.1471038621825582</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1015388271199982</v>
+      </c>
+      <c r="E22">
+        <v>-0.5995156853275826</v>
+      </c>
+      <c r="F22">
+        <v>-0.1399327592927387</v>
+      </c>
+      <c r="G22">
+        <v>-0.1117206432719854</v>
+      </c>
+      <c r="H22">
+        <v>-0.1533175657291375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08081372866999366</v>
+        <v>0.07037992546853321</v>
       </c>
       <c r="C23">
-        <v>0.0584433400104889</v>
+        <v>0.03165196265998754</v>
       </c>
       <c r="D23">
-        <v>0.1484478009315421</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1022313169674997</v>
+      </c>
+      <c r="E23">
+        <v>-0.5986367610215757</v>
+      </c>
+      <c r="F23">
+        <v>-0.1388662824218461</v>
+      </c>
+      <c r="G23">
+        <v>-0.1103403671263668</v>
+      </c>
+      <c r="H23">
+        <v>-0.1498364017551852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07520075038841102</v>
+        <v>0.08015015098695064</v>
       </c>
       <c r="C24">
-        <v>0.05088192432695405</v>
+        <v>0.03045345320373178</v>
       </c>
       <c r="D24">
-        <v>0.06056937811537567</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06312232540615578</v>
+      </c>
+      <c r="E24">
+        <v>-0.01438802791631104</v>
+      </c>
+      <c r="F24">
+        <v>0.03609134482493272</v>
+      </c>
+      <c r="G24">
+        <v>0.02460487529064497</v>
+      </c>
+      <c r="H24">
+        <v>0.03726280803514458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07422188731433299</v>
+        <v>0.07886604732471751</v>
       </c>
       <c r="C25">
-        <v>0.05371209269785102</v>
+        <v>0.03473265233090473</v>
       </c>
       <c r="D25">
-        <v>0.06513600041909677</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05176954796160873</v>
+      </c>
+      <c r="E25">
+        <v>-0.01986702105412903</v>
+      </c>
+      <c r="F25">
+        <v>0.03112877472584415</v>
+      </c>
+      <c r="G25">
+        <v>0.03397695317049132</v>
+      </c>
+      <c r="H25">
+        <v>0.04442694069000455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04457910721832078</v>
+        <v>0.04658049297389068</v>
       </c>
       <c r="C26">
-        <v>0.00820340332000326</v>
+        <v>-6.03278683269475e-05</v>
       </c>
       <c r="D26">
-        <v>0.01392113193914153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01812696519816914</v>
+      </c>
+      <c r="E26">
+        <v>-0.04203694108224124</v>
+      </c>
+      <c r="F26">
+        <v>0.03272160798534716</v>
+      </c>
+      <c r="G26">
+        <v>-0.0004883187952601794</v>
+      </c>
+      <c r="H26">
+        <v>0.0480846881915109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05337603837945753</v>
+        <v>0.06929114898223936</v>
       </c>
       <c r="C28">
-        <v>0.07066204184152589</v>
+        <v>0.1044949505515561</v>
       </c>
       <c r="D28">
-        <v>-0.3021503019446505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2999601055359267</v>
+      </c>
+      <c r="E28">
+        <v>-0.03821752918883727</v>
+      </c>
+      <c r="F28">
+        <v>0.05654528441117343</v>
+      </c>
+      <c r="G28">
+        <v>0.03421507511933181</v>
+      </c>
+      <c r="H28">
+        <v>-0.03861395845276655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04293944114069828</v>
+        <v>0.04758793976204687</v>
       </c>
       <c r="C29">
-        <v>0.02881209902777301</v>
+        <v>0.02366906320087016</v>
       </c>
       <c r="D29">
-        <v>0.008806964372684703</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01111688020697064</v>
+      </c>
+      <c r="E29">
+        <v>-0.06374352528062477</v>
+      </c>
+      <c r="F29">
+        <v>0.01093731930409083</v>
+      </c>
+      <c r="G29">
+        <v>0.003536162687992475</v>
+      </c>
+      <c r="H29">
+        <v>0.07807445540418029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1294118431727923</v>
+        <v>0.1281668082594874</v>
       </c>
       <c r="C30">
-        <v>0.08717454895377698</v>
+        <v>0.05586330081754134</v>
       </c>
       <c r="D30">
-        <v>0.1070774170903202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07756057818421593</v>
+      </c>
+      <c r="E30">
+        <v>-0.0783257371207801</v>
+      </c>
+      <c r="F30">
+        <v>0.005353549350562788</v>
+      </c>
+      <c r="G30">
+        <v>0.08795917122615775</v>
+      </c>
+      <c r="H30">
+        <v>-0.07269331608499416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04530042448555661</v>
+        <v>0.04839711984095389</v>
       </c>
       <c r="C31">
-        <v>0.02237842376156359</v>
+        <v>0.01192782249355143</v>
       </c>
       <c r="D31">
-        <v>0.02570355019265467</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03207738264964628</v>
+      </c>
+      <c r="E31">
+        <v>-0.02424878245153921</v>
+      </c>
+      <c r="F31">
+        <v>0.008316603737746654</v>
+      </c>
+      <c r="G31">
+        <v>-0.01773320790388871</v>
+      </c>
+      <c r="H31">
+        <v>0.06952577577116398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03740577096564043</v>
+        <v>0.03890895949241765</v>
       </c>
       <c r="C32">
-        <v>0.02435330361542494</v>
+        <v>0.02118741289287718</v>
       </c>
       <c r="D32">
-        <v>0.02496267560159342</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01124292621028805</v>
+      </c>
+      <c r="E32">
+        <v>-0.05716172627342379</v>
+      </c>
+      <c r="F32">
+        <v>-0.008541675040245441</v>
+      </c>
+      <c r="G32">
+        <v>0.04753616106532443</v>
+      </c>
+      <c r="H32">
+        <v>0.05994871123372243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08493813125924567</v>
+        <v>0.0941804714226312</v>
       </c>
       <c r="C33">
-        <v>0.03863472870968058</v>
+        <v>0.0210310450617684</v>
       </c>
       <c r="D33">
-        <v>0.05522202763536092</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04792532589256198</v>
+      </c>
+      <c r="E33">
+        <v>-0.0171689086884182</v>
+      </c>
+      <c r="F33">
+        <v>0.007794838929271403</v>
+      </c>
+      <c r="G33">
+        <v>0.007015091543992789</v>
+      </c>
+      <c r="H33">
+        <v>0.05763174373593469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05852625094058508</v>
+        <v>0.06364566872505459</v>
       </c>
       <c r="C34">
-        <v>0.02512520314991252</v>
+        <v>0.009611924392968043</v>
       </c>
       <c r="D34">
-        <v>0.05223761995910924</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0494612491677146</v>
+      </c>
+      <c r="E34">
+        <v>-0.008395409805188287</v>
+      </c>
+      <c r="F34">
+        <v>0.02233309445211143</v>
+      </c>
+      <c r="G34">
+        <v>0.01128661996248062</v>
+      </c>
+      <c r="H34">
+        <v>0.05378553136575158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03622267890982459</v>
+        <v>0.03835041591766842</v>
       </c>
       <c r="C35">
-        <v>0.007566482544205002</v>
+        <v>0.001900004381269858</v>
       </c>
       <c r="D35">
-        <v>0.01843963726219713</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01468587807431144</v>
+      </c>
+      <c r="E35">
+        <v>-0.02056171353197421</v>
+      </c>
+      <c r="F35">
+        <v>-0.01624024826207906</v>
+      </c>
+      <c r="G35">
+        <v>-0.007436363570350053</v>
+      </c>
+      <c r="H35">
+        <v>0.02040324389504582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02427437734934616</v>
+        <v>0.02879502468849507</v>
       </c>
       <c r="C36">
-        <v>0.01808688523927175</v>
+        <v>0.01412683782527684</v>
       </c>
       <c r="D36">
-        <v>0.02250918832234214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01653904488161371</v>
+      </c>
+      <c r="E36">
+        <v>-0.03142527725845103</v>
+      </c>
+      <c r="F36">
+        <v>0.02389590223520609</v>
+      </c>
+      <c r="G36">
+        <v>-0.001862876828765509</v>
+      </c>
+      <c r="H36">
+        <v>0.04012189017742423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04319569413695227</v>
+        <v>0.04378391157884595</v>
       </c>
       <c r="C38">
-        <v>0.002352184922953008</v>
+        <v>-0.005660847745064566</v>
       </c>
       <c r="D38">
-        <v>0.02063685141068072</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02191755934514595</v>
+      </c>
+      <c r="E38">
+        <v>-0.05045023194160822</v>
+      </c>
+      <c r="F38">
+        <v>-0.01035450825349703</v>
+      </c>
+      <c r="G38">
+        <v>0.007045324586193768</v>
+      </c>
+      <c r="H38">
+        <v>0.03360454955338683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09205747354564399</v>
+        <v>0.1002143546375008</v>
       </c>
       <c r="C39">
-        <v>0.06752330227951497</v>
+        <v>0.04573323412332714</v>
       </c>
       <c r="D39">
-        <v>0.05611024069466285</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06660822292052733</v>
+      </c>
+      <c r="E39">
+        <v>-0.005762731583077441</v>
+      </c>
+      <c r="F39">
+        <v>-0.004256321136434474</v>
+      </c>
+      <c r="G39">
+        <v>0.04680849537979354</v>
+      </c>
+      <c r="H39">
+        <v>0.03010410398165027</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07962948763177911</v>
+        <v>0.06317864574387677</v>
       </c>
       <c r="C40">
-        <v>0.03349817955829688</v>
+        <v>0.004432747483532719</v>
       </c>
       <c r="D40">
-        <v>0.004807707433311798</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02980776591593587</v>
+      </c>
+      <c r="E40">
+        <v>-0.03335216970076064</v>
+      </c>
+      <c r="F40">
+        <v>-0.04736692053812617</v>
+      </c>
+      <c r="G40">
+        <v>0.03358468751951602</v>
+      </c>
+      <c r="H40">
+        <v>-0.09197515569348028</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04329004417654624</v>
+        <v>0.0446280431582789</v>
       </c>
       <c r="C41">
-        <v>0.004970354834809784</v>
+        <v>-0.005409414830794906</v>
       </c>
       <c r="D41">
-        <v>0.0374197700570876</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03290656102928649</v>
+      </c>
+      <c r="E41">
+        <v>-0.001467926911052491</v>
+      </c>
+      <c r="F41">
+        <v>-0.01477839708112048</v>
+      </c>
+      <c r="G41">
+        <v>0.01416855547407915</v>
+      </c>
+      <c r="H41">
+        <v>0.03473419383704366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05246908447879472</v>
+        <v>0.05984601371239129</v>
       </c>
       <c r="C43">
-        <v>0.02569335552711335</v>
+        <v>0.01611224678778931</v>
       </c>
       <c r="D43">
-        <v>0.01570219214526129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02814542802543791</v>
+      </c>
+      <c r="E43">
+        <v>-0.02272179328667092</v>
+      </c>
+      <c r="F43">
+        <v>0.01173115830694614</v>
+      </c>
+      <c r="G43">
+        <v>-0.01434251808555164</v>
+      </c>
+      <c r="H43">
+        <v>0.06646289429747652</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09709088355383054</v>
+        <v>0.09515276725914919</v>
       </c>
       <c r="C44">
-        <v>0.08518002297380733</v>
+        <v>0.05663836966176352</v>
       </c>
       <c r="D44">
-        <v>0.07806666020744744</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.06827050168660438</v>
+      </c>
+      <c r="E44">
+        <v>-0.08111296229909772</v>
+      </c>
+      <c r="F44">
+        <v>0.06811295937181147</v>
+      </c>
+      <c r="G44">
+        <v>0.03108228685331511</v>
+      </c>
+      <c r="H44">
+        <v>0.02105118424819953</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02627472661203353</v>
+        <v>0.03515781040219056</v>
       </c>
       <c r="C46">
-        <v>0.01466866215911329</v>
+        <v>0.01052840769890285</v>
       </c>
       <c r="D46">
-        <v>0.03029737897260851</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03635330581009273</v>
+      </c>
+      <c r="E46">
+        <v>-0.03448387109152094</v>
+      </c>
+      <c r="F46">
+        <v>0.01271203269305815</v>
+      </c>
+      <c r="G46">
+        <v>-0.0003988626012003731</v>
+      </c>
+      <c r="H46">
+        <v>0.03473082029979876</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03214238357710008</v>
+        <v>0.0391405044112937</v>
       </c>
       <c r="C47">
-        <v>0.02365610613542617</v>
+        <v>0.01929203898798576</v>
       </c>
       <c r="D47">
-        <v>0.001457094905176111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007091105673417219</v>
+      </c>
+      <c r="E47">
+        <v>-0.04920973215906631</v>
+      </c>
+      <c r="F47">
+        <v>0.00680310826429334</v>
+      </c>
+      <c r="G47">
+        <v>-0.04288596486891492</v>
+      </c>
+      <c r="H47">
+        <v>0.04158813392610609</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0349928458383555</v>
+        <v>0.03828615466337129</v>
       </c>
       <c r="C48">
-        <v>0.01772757913451086</v>
+        <v>0.009730993339366979</v>
       </c>
       <c r="D48">
-        <v>0.03334577695114437</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02033913239063082</v>
+      </c>
+      <c r="E48">
+        <v>-0.0393738231768372</v>
+      </c>
+      <c r="F48">
+        <v>0.006617121577013742</v>
+      </c>
+      <c r="G48">
+        <v>0.01718680615679957</v>
+      </c>
+      <c r="H48">
+        <v>0.03310648423589589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1617701279021632</v>
+        <v>0.1921928966179975</v>
       </c>
       <c r="C49">
-        <v>0.04881045155101859</v>
+        <v>0.02888585387315909</v>
       </c>
       <c r="D49">
-        <v>0.001896550370152926</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03527861126457511</v>
+      </c>
+      <c r="E49">
+        <v>0.1683203844374059</v>
+      </c>
+      <c r="F49">
+        <v>0.06958862191047555</v>
+      </c>
+      <c r="G49">
+        <v>-0.08845186391428313</v>
+      </c>
+      <c r="H49">
+        <v>-0.2246007923197587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04002508054615826</v>
+        <v>0.04487672423841558</v>
       </c>
       <c r="C50">
-        <v>0.01936849048054974</v>
+        <v>0.0111639801018573</v>
       </c>
       <c r="D50">
-        <v>0.04601508424160833</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03768141666492635</v>
+      </c>
+      <c r="E50">
+        <v>-0.04272736871727606</v>
+      </c>
+      <c r="F50">
+        <v>0.01065084814352663</v>
+      </c>
+      <c r="G50">
+        <v>-0.01666403409925136</v>
+      </c>
+      <c r="H50">
+        <v>0.07461092899305459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02848258340721284</v>
+        <v>0.03275569710521056</v>
       </c>
       <c r="C51">
-        <v>0.01046352449707607</v>
+        <v>0.005741676432040019</v>
       </c>
       <c r="D51">
-        <v>0.003928941090128862</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.005167765815307178</v>
+      </c>
+      <c r="E51">
+        <v>-0.008743743300368499</v>
+      </c>
+      <c r="F51">
+        <v>0.015158658271385</v>
+      </c>
+      <c r="G51">
+        <v>-0.002904413286739758</v>
+      </c>
+      <c r="H51">
+        <v>-0.00388349726604856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1566965933420715</v>
+        <v>0.1617220949423116</v>
       </c>
       <c r="C53">
-        <v>0.07233449625143833</v>
+        <v>0.04571801874221713</v>
       </c>
       <c r="D53">
-        <v>0.000633421054377237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02399684642234205</v>
+      </c>
+      <c r="E53">
+        <v>0.03212640323770479</v>
+      </c>
+      <c r="F53">
+        <v>0.004776355947058992</v>
+      </c>
+      <c r="G53">
+        <v>-0.01463061074258329</v>
+      </c>
+      <c r="H53">
+        <v>0.1912776981083425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05673872702769538</v>
+        <v>0.05795453042468949</v>
       </c>
       <c r="C54">
-        <v>0.0214146423729264</v>
+        <v>0.01168271097158926</v>
       </c>
       <c r="D54">
-        <v>0.01755682981396864</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01334209442936536</v>
+      </c>
+      <c r="E54">
+        <v>-0.04910266299325817</v>
+      </c>
+      <c r="F54">
+        <v>0.00662365358353383</v>
+      </c>
+      <c r="G54">
+        <v>0.03578154041625691</v>
+      </c>
+      <c r="H54">
+        <v>0.04168582046578432</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1006175704504894</v>
+        <v>0.1041716705455231</v>
       </c>
       <c r="C55">
-        <v>0.04868791885521255</v>
+        <v>0.03039935945605483</v>
       </c>
       <c r="D55">
-        <v>0.02208605178236134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02836055556261927</v>
+      </c>
+      <c r="E55">
+        <v>-0.006727164359944746</v>
+      </c>
+      <c r="F55">
+        <v>0.008575817028427864</v>
+      </c>
+      <c r="G55">
+        <v>-0.004349692746703841</v>
+      </c>
+      <c r="H55">
+        <v>0.1540334493352932</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1518170075559057</v>
+        <v>0.1594603384899358</v>
       </c>
       <c r="C56">
-        <v>0.08311855700653727</v>
+        <v>0.05461356373966392</v>
       </c>
       <c r="D56">
-        <v>0.0112813133284128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03505939388488703</v>
+      </c>
+      <c r="E56">
+        <v>0.01893665482755852</v>
+      </c>
+      <c r="F56">
+        <v>0.02693087431085023</v>
+      </c>
+      <c r="G56">
+        <v>-0.01870176403863846</v>
+      </c>
+      <c r="H56">
+        <v>0.1975309585638248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1320904876945332</v>
+        <v>0.0988790339857656</v>
       </c>
       <c r="C58">
-        <v>-0.004036532849290057</v>
+        <v>-0.0482103320664374</v>
       </c>
       <c r="D58">
-        <v>0.02329050468663647</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03341095601989737</v>
+      </c>
+      <c r="E58">
+        <v>-0.1412882515163183</v>
+      </c>
+      <c r="F58">
+        <v>-0.003399801391011502</v>
+      </c>
+      <c r="G58">
+        <v>-0.05650194422256247</v>
+      </c>
+      <c r="H58">
+        <v>-0.212342224272822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1262147093018197</v>
+        <v>0.1456001396688564</v>
       </c>
       <c r="C59">
-        <v>0.07825376829703584</v>
+        <v>0.1099210960827154</v>
       </c>
       <c r="D59">
-        <v>-0.3808428667575501</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3576141232706039</v>
+      </c>
+      <c r="E59">
+        <v>-0.03442471539352737</v>
+      </c>
+      <c r="F59">
+        <v>0.002760876163182267</v>
+      </c>
+      <c r="G59">
+        <v>-0.02217116790612518</v>
+      </c>
+      <c r="H59">
+        <v>-0.001656498899331046</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2086715503817486</v>
+        <v>0.2386809779062853</v>
       </c>
       <c r="C60">
-        <v>0.09032134285258443</v>
+        <v>0.06066577597115866</v>
       </c>
       <c r="D60">
-        <v>0.02246518906582136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04561129225901679</v>
+      </c>
+      <c r="E60">
+        <v>0.1076739289848832</v>
+      </c>
+      <c r="F60">
+        <v>0.06044729993566801</v>
+      </c>
+      <c r="G60">
+        <v>0.004767776354762932</v>
+      </c>
+      <c r="H60">
+        <v>-0.1486359160080895</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08273595417215023</v>
+        <v>0.08823297867280326</v>
       </c>
       <c r="C61">
-        <v>0.04808125140108034</v>
+        <v>0.03115074081901787</v>
       </c>
       <c r="D61">
-        <v>0.03491720456307606</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04203989430465543</v>
+      </c>
+      <c r="E61">
+        <v>-0.004107231738170582</v>
+      </c>
+      <c r="F61">
+        <v>-0.002296281377844342</v>
+      </c>
+      <c r="G61">
+        <v>0.01028014270853078</v>
+      </c>
+      <c r="H61">
+        <v>0.05824435032653481</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1314758271075733</v>
+        <v>0.136962535486225</v>
       </c>
       <c r="C62">
-        <v>0.05858325018323361</v>
+        <v>0.03134234521451126</v>
       </c>
       <c r="D62">
-        <v>0.01979701412294744</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0434337468047391</v>
+      </c>
+      <c r="E62">
+        <v>0.05355909640020261</v>
+      </c>
+      <c r="F62">
+        <v>-0.002432931267298675</v>
+      </c>
+      <c r="G62">
+        <v>0.02148499038405028</v>
+      </c>
+      <c r="H62">
+        <v>0.1888632128472586</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05208364164787306</v>
+        <v>0.05223557495977934</v>
       </c>
       <c r="C63">
-        <v>0.02250497589636448</v>
+        <v>0.01307778231391596</v>
       </c>
       <c r="D63">
-        <v>0.02566598487201403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0199094427941367</v>
+      </c>
+      <c r="E63">
+        <v>-0.04828434564245081</v>
+      </c>
+      <c r="F63">
+        <v>-0.005487465513826611</v>
+      </c>
+      <c r="G63">
+        <v>0.02139874428973125</v>
+      </c>
+      <c r="H63">
+        <v>0.04338661264521462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1046419079396631</v>
+        <v>0.1091624278475592</v>
       </c>
       <c r="C64">
-        <v>0.02994117763448338</v>
+        <v>0.01437962354343283</v>
       </c>
       <c r="D64">
-        <v>0.03613722204229601</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02970174921005102</v>
+      </c>
+      <c r="E64">
+        <v>-0.03439388787952399</v>
+      </c>
+      <c r="F64">
+        <v>0.04440551097725177</v>
+      </c>
+      <c r="G64">
+        <v>0.06179318523629563</v>
+      </c>
+      <c r="H64">
+        <v>0.03472339518515576</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1287155151513419</v>
+        <v>0.1304887248577573</v>
       </c>
       <c r="C65">
-        <v>0.05860937372674159</v>
+        <v>0.04087182291683231</v>
       </c>
       <c r="D65">
-        <v>0.004335090084405758</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.009893883083331308</v>
+      </c>
+      <c r="E65">
+        <v>0.002219338553803184</v>
+      </c>
+      <c r="F65">
+        <v>0.05233883611071186</v>
+      </c>
+      <c r="G65">
+        <v>0.0600897399196571</v>
+      </c>
+      <c r="H65">
+        <v>-0.1492204433007521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1488858824672272</v>
+        <v>0.1521435776568724</v>
       </c>
       <c r="C66">
-        <v>0.06659710377139093</v>
+        <v>0.03357564599186206</v>
       </c>
       <c r="D66">
-        <v>0.1001983020681192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09987489499700916</v>
+      </c>
+      <c r="E66">
+        <v>0.02264429265756608</v>
+      </c>
+      <c r="F66">
+        <v>0.003756180795997152</v>
+      </c>
+      <c r="G66">
+        <v>0.05704055492926496</v>
+      </c>
+      <c r="H66">
+        <v>0.09107073900066805</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07558904983675137</v>
+        <v>0.08413741605046017</v>
       </c>
       <c r="C67">
-        <v>0.009251168046066972</v>
+        <v>-0.00179704293243758</v>
       </c>
       <c r="D67">
-        <v>0.02448471700681278</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03332670776369583</v>
+      </c>
+      <c r="E67">
+        <v>-0.01727931415907328</v>
+      </c>
+      <c r="F67">
+        <v>0.01478177118320674</v>
+      </c>
+      <c r="G67">
+        <v>-0.008773452903210773</v>
+      </c>
+      <c r="H67">
+        <v>0.04133041127650736</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06046014502227159</v>
+        <v>0.06435635657915849</v>
       </c>
       <c r="C68">
-        <v>0.05025394440183135</v>
+        <v>0.07846475379789064</v>
       </c>
       <c r="D68">
-        <v>-0.2549486981481721</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.265289425883049</v>
+      </c>
+      <c r="E68">
+        <v>-0.0446611761638866</v>
+      </c>
+      <c r="F68">
+        <v>0.009428715307397209</v>
+      </c>
+      <c r="G68">
+        <v>-0.01021779608150671</v>
+      </c>
+      <c r="H68">
+        <v>0.008684693046728675</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05191910296850403</v>
+        <v>0.05216645239076471</v>
       </c>
       <c r="C69">
-        <v>0.01445210795421668</v>
+        <v>0.002783478784479835</v>
       </c>
       <c r="D69">
-        <v>0.0251948141395686</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02014759763912993</v>
+      </c>
+      <c r="E69">
+        <v>-0.02485806092537447</v>
+      </c>
+      <c r="F69">
+        <v>-0.01394650409942336</v>
+      </c>
+      <c r="G69">
+        <v>-0.01681816568975925</v>
+      </c>
+      <c r="H69">
+        <v>0.05921353218006465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003389348357074975</v>
+        <v>0.02733315224327116</v>
       </c>
       <c r="C70">
-        <v>-0.009012982507637326</v>
+        <v>-0.003724354709323738</v>
       </c>
       <c r="D70">
-        <v>-0.01077484978604659</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.005794737062885661</v>
+      </c>
+      <c r="E70">
+        <v>0.02238123555203718</v>
+      </c>
+      <c r="F70">
+        <v>0.009073587458190419</v>
+      </c>
+      <c r="G70">
+        <v>-0.01836761760045363</v>
+      </c>
+      <c r="H70">
+        <v>-0.01677005869192486</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05920549522006965</v>
+        <v>0.06804375639688159</v>
       </c>
       <c r="C71">
-        <v>0.05069484413815723</v>
+        <v>0.08626035858978998</v>
       </c>
       <c r="D71">
-        <v>-0.2911140625500025</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2926901448432835</v>
+      </c>
+      <c r="E71">
+        <v>-0.04094136856011515</v>
+      </c>
+      <c r="F71">
+        <v>0.03954719375429727</v>
+      </c>
+      <c r="G71">
+        <v>-0.0001159207463950922</v>
+      </c>
+      <c r="H71">
+        <v>0.006414456905396041</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1429304130349245</v>
+        <v>0.1455280364586106</v>
       </c>
       <c r="C72">
-        <v>0.05718965038799022</v>
+        <v>0.03123165243641614</v>
       </c>
       <c r="D72">
-        <v>-0.0003069977338212889</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0004736311167402546</v>
+      </c>
+      <c r="E72">
+        <v>0.07935168275796849</v>
+      </c>
+      <c r="F72">
+        <v>-0.1679765666154437</v>
+      </c>
+      <c r="G72">
+        <v>0.1120911597497155</v>
+      </c>
+      <c r="H72">
+        <v>-0.02089051753338803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2870080101377739</v>
+        <v>0.287279106286101</v>
       </c>
       <c r="C73">
-        <v>0.09206976845100336</v>
+        <v>0.0255438878040075</v>
       </c>
       <c r="D73">
-        <v>0.04336322895803476</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1021633264200806</v>
+      </c>
+      <c r="E73">
+        <v>0.2272025586277196</v>
+      </c>
+      <c r="F73">
+        <v>0.09755554721907297</v>
+      </c>
+      <c r="G73">
+        <v>-0.1951101028280243</v>
+      </c>
+      <c r="H73">
+        <v>-0.4772324684382824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08315398290201224</v>
+        <v>0.09097839148838778</v>
       </c>
       <c r="C74">
-        <v>0.07532060815459302</v>
+        <v>0.05589469200266991</v>
       </c>
       <c r="D74">
-        <v>0.009288041202791862</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03784228177775681</v>
+      </c>
+      <c r="E74">
+        <v>0.004557177452420406</v>
+      </c>
+      <c r="F74">
+        <v>-0.001258933125383375</v>
+      </c>
+      <c r="G74">
+        <v>-0.04271675352774802</v>
+      </c>
+      <c r="H74">
+        <v>0.1265448854937464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09778626617116236</v>
+        <v>0.1020737194223991</v>
       </c>
       <c r="C75">
-        <v>0.0483822163694446</v>
+        <v>0.0245293707872373</v>
       </c>
       <c r="D75">
-        <v>0.01312392533566493</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02491790999013583</v>
+      </c>
+      <c r="E75">
+        <v>-0.0007672650223306773</v>
+      </c>
+      <c r="F75">
+        <v>0.01501277760182548</v>
+      </c>
+      <c r="G75">
+        <v>-0.02232901472218749</v>
+      </c>
+      <c r="H75">
+        <v>0.1219182138394522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1336722805754987</v>
+        <v>0.1432765748089827</v>
       </c>
       <c r="C76">
-        <v>0.07824275105103558</v>
+        <v>0.05339085419690508</v>
       </c>
       <c r="D76">
-        <v>0.0326242928052364</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0492712607382586</v>
+      </c>
+      <c r="E76">
+        <v>-0.02047092567714557</v>
+      </c>
+      <c r="F76">
+        <v>0.03915512778434615</v>
+      </c>
+      <c r="G76">
+        <v>-0.01131377503341982</v>
+      </c>
+      <c r="H76">
+        <v>0.2210922693117757</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1178080175862356</v>
+        <v>0.1052074138293434</v>
       </c>
       <c r="C77">
-        <v>0.009402343278967062</v>
+        <v>-0.02032877547454714</v>
       </c>
       <c r="D77">
-        <v>0.08343715717035684</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03535791960955459</v>
+      </c>
+      <c r="E77">
+        <v>-0.03476195853591595</v>
+      </c>
+      <c r="F77">
+        <v>0.05971983398798564</v>
+      </c>
+      <c r="G77">
+        <v>0.8682170922261584</v>
+      </c>
+      <c r="H77">
+        <v>-0.1626011509127567</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.107437570412444</v>
+        <v>0.1494298905776001</v>
       </c>
       <c r="C78">
-        <v>0.03473005840550837</v>
+        <v>0.02971729817749027</v>
       </c>
       <c r="D78">
-        <v>0.0921414765459178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07924822099109195</v>
+      </c>
+      <c r="E78">
+        <v>-0.04726179943040865</v>
+      </c>
+      <c r="F78">
+        <v>0.05928452765371704</v>
+      </c>
+      <c r="G78">
+        <v>0.08506442816402343</v>
+      </c>
+      <c r="H78">
+        <v>-0.04625595348770614</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1482914119161844</v>
+        <v>0.1496868339372371</v>
       </c>
       <c r="C79">
-        <v>0.0665823368692912</v>
+        <v>0.03494630225796361</v>
       </c>
       <c r="D79">
-        <v>0.02162657639875775</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03592392502287587</v>
+      </c>
+      <c r="E79">
+        <v>0.01638803478526994</v>
+      </c>
+      <c r="F79">
+        <v>0.01734132695993969</v>
+      </c>
+      <c r="G79">
+        <v>-0.02311144656068345</v>
+      </c>
+      <c r="H79">
+        <v>0.1669424889420147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04119334234619121</v>
+        <v>0.04173264117983889</v>
       </c>
       <c r="C80">
-        <v>0.01875811818053542</v>
+        <v>0.0116339511510624</v>
       </c>
       <c r="D80">
-        <v>0.03008788784553608</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01680429198335691</v>
+      </c>
+      <c r="E80">
+        <v>0.03105844784310792</v>
+      </c>
+      <c r="F80">
+        <v>0.003203041718633297</v>
+      </c>
+      <c r="G80">
+        <v>-0.02191145490457955</v>
+      </c>
+      <c r="H80">
+        <v>0.03532889267735498</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1188620721393125</v>
+        <v>0.1206797897738781</v>
       </c>
       <c r="C81">
-        <v>0.05809494951370105</v>
+        <v>0.03288581601228457</v>
       </c>
       <c r="D81">
-        <v>0.03269149639373897</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03090128747539332</v>
+      </c>
+      <c r="E81">
+        <v>-0.008303641959423569</v>
+      </c>
+      <c r="F81">
+        <v>0.01793671954240542</v>
+      </c>
+      <c r="G81">
+        <v>-0.04929399912714916</v>
+      </c>
+      <c r="H81">
+        <v>0.1676320506724543</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1318142594434048</v>
+        <v>0.1310841641572465</v>
       </c>
       <c r="C82">
-        <v>0.0715453577101156</v>
+        <v>0.04548919054063136</v>
       </c>
       <c r="D82">
-        <v>0.01177551958066146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03390483768615435</v>
+      </c>
+      <c r="E82">
+        <v>0.02052697407933134</v>
+      </c>
+      <c r="F82">
+        <v>0.04690229927601587</v>
+      </c>
+      <c r="G82">
+        <v>-0.03471042250905575</v>
+      </c>
+      <c r="H82">
+        <v>0.2230553198537801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06853037704819656</v>
+        <v>0.08252158698485909</v>
       </c>
       <c r="C83">
-        <v>-0.02353341168171418</v>
+        <v>-0.03446811980444197</v>
       </c>
       <c r="D83">
-        <v>0.0153582265503207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02299842214579616</v>
+      </c>
+      <c r="E83">
+        <v>-0.02546400634217432</v>
+      </c>
+      <c r="F83">
+        <v>0.05977618291877363</v>
+      </c>
+      <c r="G83">
+        <v>-0.06038336681846617</v>
+      </c>
+      <c r="H83">
+        <v>-0.04115523754757038</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02908753925668754</v>
+        <v>0.03834731146657486</v>
       </c>
       <c r="C84">
-        <v>0.02754556741427312</v>
+        <v>0.02178003501622383</v>
       </c>
       <c r="D84">
-        <v>0.03350288869088909</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0320838367172769</v>
+      </c>
+      <c r="E84">
+        <v>-0.02711303851658795</v>
+      </c>
+      <c r="F84">
+        <v>-0.04753982677967435</v>
+      </c>
+      <c r="G84">
+        <v>-0.05699684384921742</v>
+      </c>
+      <c r="H84">
+        <v>0.005839821348034352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1154978389029702</v>
+        <v>0.119552264164022</v>
       </c>
       <c r="C85">
-        <v>0.04143020387576168</v>
+        <v>0.01817766404657603</v>
       </c>
       <c r="D85">
-        <v>0.0462511586807233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03891483310220781</v>
+      </c>
+      <c r="E85">
+        <v>-0.01993169865013163</v>
+      </c>
+      <c r="F85">
+        <v>0.03891743039969658</v>
+      </c>
+      <c r="G85">
+        <v>-0.02368542563466739</v>
+      </c>
+      <c r="H85">
+        <v>0.1592944463988904</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05251017398172739</v>
+        <v>0.0566957865187694</v>
       </c>
       <c r="C86">
-        <v>0.01952522884694525</v>
+        <v>0.008024319998670731</v>
       </c>
       <c r="D86">
-        <v>0.05953833277820914</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03531970026765213</v>
+      </c>
+      <c r="E86">
+        <v>-0.04658281896361925</v>
+      </c>
+      <c r="F86">
+        <v>0.0255972932730863</v>
+      </c>
+      <c r="G86">
+        <v>-0.02815537561173225</v>
+      </c>
+      <c r="H86">
+        <v>-0.02174664757257923</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1223257334654735</v>
+        <v>0.1258605805810113</v>
       </c>
       <c r="C87">
-        <v>0.06485832765304959</v>
+        <v>0.03168918680165408</v>
       </c>
       <c r="D87">
-        <v>0.06903970192484728</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06557967345523517</v>
+      </c>
+      <c r="E87">
+        <v>-0.01609623891169895</v>
+      </c>
+      <c r="F87">
+        <v>0.007722466736447988</v>
+      </c>
+      <c r="G87">
+        <v>0.1207317692387103</v>
+      </c>
+      <c r="H87">
+        <v>-0.05396588543045018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05365162670392326</v>
+        <v>0.06176675529525318</v>
       </c>
       <c r="C88">
-        <v>0.02830159677859961</v>
+        <v>0.01765116644074328</v>
       </c>
       <c r="D88">
-        <v>0.02587590566942477</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03719433380042014</v>
+      </c>
+      <c r="E88">
+        <v>-0.01381596221666898</v>
+      </c>
+      <c r="F88">
+        <v>0.01025499420321417</v>
+      </c>
+      <c r="G88">
+        <v>0.01175575586576652</v>
+      </c>
+      <c r="H88">
+        <v>0.04645071882016634</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08999885436750231</v>
+        <v>0.1044472370032633</v>
       </c>
       <c r="C89">
-        <v>0.07289373919979528</v>
+        <v>0.1099560808528871</v>
       </c>
       <c r="D89">
-        <v>-0.3319988253278434</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.340163753741219</v>
+      </c>
+      <c r="E89">
+        <v>-0.07949854311325524</v>
+      </c>
+      <c r="F89">
+        <v>0.07488325395357746</v>
+      </c>
+      <c r="G89">
+        <v>-0.02702639475352757</v>
+      </c>
+      <c r="H89">
+        <v>0.008535363590237991</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0753509521837399</v>
+        <v>0.08503670249983693</v>
       </c>
       <c r="C90">
-        <v>0.06147199775224132</v>
+        <v>0.09125012144265897</v>
       </c>
       <c r="D90">
-        <v>-0.2833115592677626</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2827243813798448</v>
+      </c>
+      <c r="E90">
+        <v>-0.05551105154959118</v>
+      </c>
+      <c r="F90">
+        <v>0.02315712671509685</v>
+      </c>
+      <c r="G90">
+        <v>0.03004780958281155</v>
+      </c>
+      <c r="H90">
+        <v>-0.0120199545622618</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08868624131967878</v>
+        <v>0.09088598033842527</v>
       </c>
       <c r="C91">
-        <v>0.0497523512623209</v>
+        <v>0.02807790009504711</v>
       </c>
       <c r="D91">
-        <v>0.02219666695436904</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03173416952072499</v>
+      </c>
+      <c r="E91">
+        <v>-0.007181041951136538</v>
+      </c>
+      <c r="F91">
+        <v>0.002053250902412985</v>
+      </c>
+      <c r="G91">
+        <v>-0.03651862059396151</v>
+      </c>
+      <c r="H91">
+        <v>0.09670888133971071</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07587688834506921</v>
+        <v>0.08689819995888066</v>
       </c>
       <c r="C92">
-        <v>0.07439791156648018</v>
+        <v>0.1120246715212561</v>
       </c>
       <c r="D92">
-        <v>-0.3407314103032902</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.337537036648083</v>
+      </c>
+      <c r="E92">
+        <v>-0.05048795528040131</v>
+      </c>
+      <c r="F92">
+        <v>0.03539969181188464</v>
+      </c>
+      <c r="G92">
+        <v>0.007879390340416761</v>
+      </c>
+      <c r="H92">
+        <v>0.01783793339460983</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06701028460789937</v>
+        <v>0.08129274728485808</v>
       </c>
       <c r="C93">
-        <v>0.06634274711331274</v>
+        <v>0.1032501268982636</v>
       </c>
       <c r="D93">
-        <v>-0.2984527127362722</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2979726176885019</v>
+      </c>
+      <c r="E93">
+        <v>-0.02899469664277773</v>
+      </c>
+      <c r="F93">
+        <v>0.02675008779871224</v>
+      </c>
+      <c r="G93">
+        <v>0.01680788020799529</v>
+      </c>
+      <c r="H93">
+        <v>-0.01267445830872121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1349356145620466</v>
+        <v>0.1292526936486925</v>
       </c>
       <c r="C94">
-        <v>0.04281971639553811</v>
+        <v>0.01011002903700899</v>
       </c>
       <c r="D94">
-        <v>0.04060609071265029</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0488941272261175</v>
+      </c>
+      <c r="E94">
+        <v>0.01700559709632216</v>
+      </c>
+      <c r="F94">
+        <v>0.01268432127733615</v>
+      </c>
+      <c r="G94">
+        <v>-0.05535099325110684</v>
+      </c>
+      <c r="H94">
+        <v>0.117072168883737</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1224086892765909</v>
+        <v>0.1290572550741514</v>
       </c>
       <c r="C95">
-        <v>0.0228134025526454</v>
+        <v>-0.003577109427719978</v>
       </c>
       <c r="D95">
-        <v>0.05211879578446137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06097007551505392</v>
+      </c>
+      <c r="E95">
+        <v>-0.009128380929022902</v>
+      </c>
+      <c r="F95">
+        <v>0.04967965621990945</v>
+      </c>
+      <c r="G95">
+        <v>0.05343458809648239</v>
+      </c>
+      <c r="H95">
+        <v>-0.06384339347413423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.220269982727746</v>
+        <v>0.200792635385246</v>
       </c>
       <c r="C97">
-        <v>0.03826589942032391</v>
+        <v>-0.006772441954019265</v>
       </c>
       <c r="D97">
-        <v>-0.1005308843159432</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.07294263074644249</v>
+      </c>
+      <c r="E97">
+        <v>0.180073559032836</v>
+      </c>
+      <c r="F97">
+        <v>-0.9137270467955356</v>
+      </c>
+      <c r="G97">
+        <v>0.04166606222931125</v>
+      </c>
+      <c r="H97">
+        <v>-0.001447274625673785</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2444701474672431</v>
+        <v>0.2749100095099843</v>
       </c>
       <c r="C98">
-        <v>0.05484791401039783</v>
+        <v>0.01790944076774996</v>
       </c>
       <c r="D98">
-        <v>0.02577234328571526</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05137888295667131</v>
+      </c>
+      <c r="E98">
+        <v>0.1869892547673098</v>
+      </c>
+      <c r="F98">
+        <v>0.06416121307986172</v>
+      </c>
+      <c r="G98">
+        <v>-0.2595679431438677</v>
+      </c>
+      <c r="H98">
+        <v>-0.1978766892527264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3994175539468525</v>
+        <v>0.2624875693713337</v>
       </c>
       <c r="C99">
-        <v>-0.8983032989648033</v>
+        <v>-0.9253342463057185</v>
       </c>
       <c r="D99">
-        <v>-0.06036358454246928</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.2013183991701427</v>
+      </c>
+      <c r="E99">
+        <v>-0.07422478184361458</v>
+      </c>
+      <c r="F99">
+        <v>0.06217424114314969</v>
+      </c>
+      <c r="G99">
+        <v>-0.01289704081253949</v>
+      </c>
+      <c r="H99">
+        <v>0.06946918613041878</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04273105430481728</v>
+        <v>0.04749258401487885</v>
       </c>
       <c r="C101">
-        <v>0.02892550520789423</v>
+        <v>0.02389557698587482</v>
       </c>
       <c r="D101">
-        <v>0.009632020445785932</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01141304288536083</v>
+      </c>
+      <c r="E101">
+        <v>-0.0636550043253893</v>
+      </c>
+      <c r="F101">
+        <v>0.01054368164258941</v>
+      </c>
+      <c r="G101">
+        <v>0.002771879672595838</v>
+      </c>
+      <c r="H101">
+        <v>0.07706995898047472</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
